--- a/assets/content_questionnaires.xlsx
+++ b/assets/content_questionnaires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Serena/Desktop/GuRu/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Serena/Desktop/GuRu/GuRu/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A7F79A-22C4-E841-AF6A-827723633409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C49FF7-D207-0147-8827-2AB328D1FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38220" yWindow="-11760" windowWidth="28100" windowHeight="16100" xr2:uid="{D55199DA-A16C-9B42-9487-DD2A902BF919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{D55199DA-A16C-9B42-9487-DD2A902BF919}"/>
   </bookViews>
   <sheets>
     <sheet name="quest_overview" sheetId="1" r:id="rId1"/>
@@ -37,49 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="127">
-  <si>
-    <t>Pre</t>
-  </si>
-  <si>
-    <t>2m</t>
-  </si>
-  <si>
-    <t>6m</t>
-  </si>
-  <si>
-    <t>1y</t>
-  </si>
-  <si>
-    <t>1.5y</t>
-  </si>
-  <si>
-    <t>2y</t>
-  </si>
-  <si>
-    <t>2.5y</t>
-  </si>
-  <si>
-    <t>3y</t>
-  </si>
-  <si>
-    <t>4y</t>
-  </si>
-  <si>
-    <t>6y</t>
-  </si>
-  <si>
-    <t>8y</t>
-  </si>
-  <si>
-    <t>10y</t>
-  </si>
-  <si>
-    <t>14y</t>
-  </si>
-  <si>
-    <t>18y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>Family sociodemographics</t>
   </si>
@@ -424,13 +382,61 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Prenatal</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>1.5 years</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>2.5 years</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>4 years</t>
+  </si>
+  <si>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>8 years</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>14 years</t>
+  </si>
+  <si>
+    <t>18 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,6 +448,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
     </font>
   </fonts>
   <fills count="3">
@@ -473,11 +485,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,944 +824,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6FD747-5845-734E-8FB8-42C2CD6ABB85}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
-        <v>21</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="O23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" t="s">
-        <v>57</v>
-      </c>
-      <c r="P24" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="P40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17" customHeight="1">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="P41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="19" customHeight="1">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="P26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="L46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
         <v>42</v>
       </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="P48" t="s">
         <v>45</v>
-      </c>
-      <c r="P34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" t="s">
-        <v>59</v>
-      </c>
-      <c r="O36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="M37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O37" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="M38" t="s">
-        <v>58</v>
-      </c>
-      <c r="O38" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="O39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="17" customHeight="1">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="P42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="19" customHeight="1">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="M46" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46" t="s">
-        <v>59</v>
-      </c>
-      <c r="P46" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="M47" t="s">
-        <v>59</v>
-      </c>
-      <c r="O47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1774,16 +1641,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1791,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1805,13 +1672,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1819,13 +1686,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1833,13 +1700,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1847,13 +1714,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1861,13 +1728,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1875,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1889,13 +1756,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1903,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1917,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1931,13 +1798,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1945,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1959,13 +1826,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1973,13 +1840,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1987,13 +1854,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2001,13 +1868,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2015,13 +1882,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2029,13 +1896,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2043,13 +1910,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2057,13 +1924,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2071,13 +1938,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2085,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2099,13 +1966,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2113,13 +1980,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2127,13 +1994,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" customHeight="1">
@@ -2141,13 +2008,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2155,13 +2022,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2169,13 +2036,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2183,13 +2050,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2197,13 +2064,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2211,13 +2078,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2225,13 +2092,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2239,13 +2106,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2253,13 +2120,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" customHeight="1">
@@ -2267,13 +2134,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>113</v>
+        <v>33</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22" customHeight="1">
@@ -2281,13 +2148,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>114</v>
+        <v>34</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1">
@@ -2295,13 +2162,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>115</v>
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="38" customHeight="1">
@@ -2309,13 +2176,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="42" customHeight="1">
@@ -2323,13 +2190,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>117</v>
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="68">
@@ -2337,13 +2204,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>38</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="85">
@@ -2351,13 +2218,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>119</v>
+        <v>59</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68">
@@ -2365,13 +2232,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34">
@@ -2379,13 +2246,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>121</v>
+        <v>61</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="51">
@@ -2393,13 +2260,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="102">
@@ -2407,13 +2274,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>123</v>
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="51">
@@ -2421,13 +2288,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>124</v>
+        <v>41</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="68">
@@ -2435,13 +2302,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>125</v>
+        <v>42</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/assets/content_questionnaires.xlsx
+++ b/assets/content_questionnaires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Serena/Desktop/GuRu/GuRu/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C49FF7-D207-0147-8827-2AB328D1FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB437E62-3716-3C47-9BCF-D10649B6CB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{D55199DA-A16C-9B42-9487-DD2A902BF919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{D55199DA-A16C-9B42-9487-DD2A902BF919}"/>
   </bookViews>
   <sheets>
     <sheet name="quest_overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="130">
   <si>
     <t>Family sociodemographics</t>
   </si>
@@ -430,23 +430,20 @@
   </si>
   <si>
     <t>18 years</t>
+  </si>
+  <si>
+    <t>22 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -455,8 +452,21 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +479,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -478,18 +506,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6FD747-5845-734E-8FB8-42C2CD6ABB85}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="16"/>
@@ -836,57 +1045,60 @@
     <col min="2" max="2" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -897,7 +1109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1256,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1626,690 +1838,697 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD1F27C-37FA-7F46-A230-A13C42AF927D}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="199.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="134.7109375" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="17">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="102">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" s="15" customFormat="1" ht="68">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" s="15" customFormat="1" ht="102">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" s="15" customFormat="1" ht="68">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" s="15" customFormat="1" ht="102">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" s="15" customFormat="1" ht="102">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" s="20" customFormat="1" ht="153">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" s="25" customFormat="1" ht="68">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" s="20" customFormat="1" ht="51">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" s="20" customFormat="1" ht="85">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" s="20" customFormat="1" ht="102">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" s="20" customFormat="1" ht="68">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" s="20" customFormat="1" ht="85">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" s="20" customFormat="1" ht="136">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" s="30" customFormat="1" ht="85">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" s="30" customFormat="1" ht="85">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" s="30" customFormat="1" ht="102">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" s="30" customFormat="1" ht="68">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" s="30" customFormat="1" ht="136">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" s="30" customFormat="1" ht="136">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" s="30" customFormat="1" ht="85">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" s="30" customFormat="1" ht="119">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" s="30" customFormat="1" ht="85">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" s="30" customFormat="1" ht="85">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" customHeight="1">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" s="35" customFormat="1" ht="136">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" s="35" customFormat="1" ht="68">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" s="35" customFormat="1" ht="68">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:4" s="35" customFormat="1" ht="85">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" s="35" customFormat="1" ht="119">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" s="35" customFormat="1" ht="102">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" s="40" customFormat="1" ht="68">
+      <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" s="40" customFormat="1" ht="85">
+      <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" s="40" customFormat="1" ht="68">
+      <c r="A35" s="36">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" customHeight="1">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" s="40" customFormat="1" ht="289">
+      <c r="A36" s="36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22" customHeight="1">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" s="40" customFormat="1" ht="136">
+      <c r="A37" s="36">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" s="40" customFormat="1" ht="187">
+      <c r="A38" s="36">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="38" customHeight="1">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" s="40" customFormat="1" ht="136">
+      <c r="A39" s="36">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42" customHeight="1">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" s="40" customFormat="1" ht="85">
+      <c r="A40" s="36">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="68">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" s="40" customFormat="1" ht="102">
+      <c r="A41" s="36">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="85">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" s="40" customFormat="1" ht="119">
+      <c r="A42" s="36">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="68">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" s="40" customFormat="1" ht="85">
+      <c r="A43" s="36">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="44" spans="1:4" s="40" customFormat="1" ht="51">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="51">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="45" spans="1:4" s="40" customFormat="1" ht="68">
+      <c r="A45" s="36">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="102">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" s="40" customFormat="1" ht="153">
+      <c r="A46" s="36">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="51">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" s="40" customFormat="1" ht="68">
+      <c r="A47" s="36">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="68">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" s="40" customFormat="1" ht="85">
+      <c r="A48" s="41">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="44" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="54" spans="1:4" s="50" customFormat="1">
+      <c r="A54" s="49"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
